--- a/DataSets/anomalyDataTest.xlsx
+++ b/DataSets/anomalyDataTest.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -514,7 +514,7 @@
         <v>4.390109890109891</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.05068180624919716</v>
+        <v>-0.09727973916397115</v>
       </c>
     </row>
     <row r="3">
@@ -551,7 +551,7 @@
         <v>4.390109890109891</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.1170383739789618</v>
+        <v>-0.09727973916397115</v>
       </c>
     </row>
     <row r="4">
@@ -588,7 +588,7 @@
         <v>4.390109890109891</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.1170383739789618</v>
+        <v>-0.09727973916397115</v>
       </c>
     </row>
     <row r="5">
@@ -615,17 +615,17 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>22.04.2024</t>
+          <t>06.12.2024</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H5" t="n">
         <v>4.390109890109891</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.01500382566363889</v>
+        <v>-0.01033133548236209</v>
       </c>
     </row>
     <row r="6">
@@ -652,17 +652,17 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>25.06.2024</t>
+          <t>18.03.2024</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H6" t="n">
         <v>4.390109890109891</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.01500382566363889</v>
+        <v>-0.01033133548236209</v>
       </c>
     </row>
     <row r="7">
@@ -689,7 +689,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>27.06.2024</t>
+          <t>22.04.2024</t>
         </is>
       </c>
       <c r="G7" t="n">
@@ -699,7 +699,7 @@
         <v>4.390109890109891</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.01500382566363889</v>
+        <v>-0.0454424238436405</v>
       </c>
     </row>
     <row r="8">
@@ -726,17 +726,17 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>28.01.2024</t>
+          <t>25.06.2024</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H8" t="n">
         <v>4.390109890109891</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.02819876449202707</v>
+        <v>-0.0454424238436405</v>
       </c>
     </row>
     <row r="9">
@@ -763,17 +763,128 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
+          <t>26.06.2024</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>8</v>
+      </c>
+      <c r="H9" t="n">
+        <v>4.390109890109891</v>
+      </c>
+      <c r="I9" t="n">
+        <v>-0.01033133548236209</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>2</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Erkek</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>İstanbul</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>02.01.2000</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>27.06.2024</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>9</v>
+      </c>
+      <c r="H10" t="n">
+        <v>4.390109890109891</v>
+      </c>
+      <c r="I10" t="n">
+        <v>-0.0454424238436405</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>2</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Erkek</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>İstanbul</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>02.01.2000</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>28.01.2024</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>10</v>
+      </c>
+      <c r="H11" t="n">
+        <v>4.390109890109891</v>
+      </c>
+      <c r="I11" t="n">
+        <v>-0.07881220020251534</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>2</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Erkek</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>İstanbul</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>02.01.2000</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
           <t>28.05.2024</t>
         </is>
       </c>
-      <c r="G9" t="n">
+      <c r="G12" t="n">
         <v>9</v>
       </c>
-      <c r="H9" t="n">
-        <v>4.390109890109891</v>
-      </c>
-      <c r="I9" t="n">
-        <v>-0.01500382566363889</v>
+      <c r="H12" t="n">
+        <v>4.390109890109891</v>
+      </c>
+      <c r="I12" t="n">
+        <v>-0.0454424238436405</v>
       </c>
     </row>
   </sheetData>
